--- a/02_Redigerte data/03_Arbeid og næringsliv/Industri FNB_SSB_11713.xlsx
+++ b/02_Redigerte data/03_Arbeid og næringsliv/Industri FNB_SSB_11713.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/erling_kielland_servoll_vtfk_no/Documents/GitHub/VT_Pluss/02_Redigerte data/03_Arbeid og næringsliv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{5714B780-A6B3-469B-BDCE-0041A60B853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5566E3F-14ED-4DAD-A43D-5CC163F51A2C}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{5714B780-A6B3-469B-BDCE-0041A60B853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF058ACA-E928-44E7-965A-E7706706CF0F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21495" yWindow="0" windowWidth="33795" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="4" r:id="rId1"/>
     <sheet name="Tabell1" sheetId="3" r:id="rId2"/>
     <sheet name="BNPB" sheetId="2" r:id="rId3"/>
     <sheet name="09315 sysselsatt i industrien" sheetId="6" r:id="rId4"/>
-    <sheet name="Viz 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Viz 2 industrigreiner V" sheetId="7" r:id="rId5"/>
+    <sheet name="Viz 3industrigreiner T" sheetId="8" r:id="rId6"/>
+    <sheet name="Viz 1" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'09315 sysselsatt i industrien'!$A$21:$N$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Viz 1'!$A$30:$M$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Viz 1'!$A$30:$M$42</definedName>
     <definedName name="EksterneData_1" localSheetId="1" hidden="1">Tabell1!$A$1:$E$1189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5120" uniqueCount="113">
   <si>
     <t>11713: Fylkesfordelt nasjonalregnskap, etter statistikkvariabel, region, næring og år</t>
   </si>
@@ -368,7 +370,28 @@
     <t>andel</t>
   </si>
   <si>
-    <t>(Alle)</t>
+    <t>Vestfold</t>
+  </si>
+  <si>
+    <t>Næringsmiddelindustri</t>
+  </si>
+  <si>
+    <t>Metallvareindustri</t>
+  </si>
+  <si>
+    <t>Kjemisk industri</t>
+  </si>
+  <si>
+    <t>Trelast- og trevareindustri</t>
+  </si>
+  <si>
+    <t>Metallindustri</t>
+  </si>
+  <si>
+    <t>Mineralproduktindustri</t>
+  </si>
+  <si>
+    <t>Petroleums- og kullvareindustri</t>
   </si>
 </sst>
 </file>
@@ -427,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -442,6 +465,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -451,13 +476,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Prosent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -540,6 +559,2208 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Sysselsatte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>i 7 industrigreiner </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t>i Vestfold</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Næringsmiddelindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2463</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5634-4004-BC6A-6164383E721C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 Metallvareindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5634-4004-BC6A-6164383E721C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Kjemisk industri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5634-4004-BC6A-6164383E721C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Trelast- og trevareindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5634-4004-BC6A-6164383E721C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 Metallindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5634-4004-BC6A-6164383E721C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23 Mineralproduktindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5634-4004-BC6A-6164383E721C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19 Petroleums- og kullvareindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5634-4004-BC6A-6164383E721C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1243578496"/>
+        <c:axId val="1243579480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1243578496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243579480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1243579480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243578496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Sysselsatte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t> i 7 industrigreiner i Telemark</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Kjemisk industri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$21:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E911-4F7F-88D4-052E3F6F949C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 Metallvareindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$21:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E911-4F7F-88D4-052E3F6F949C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23 Mineralproduktindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$21:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E911-4F7F-88D4-052E3F6F949C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Næringsmiddelindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$21:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E911-4F7F-88D4-052E3F6F949C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 Metallindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$21:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E911-4F7F-88D4-052E3F6F949C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Trelast- og trevareindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$21:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$28:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E911-4F7F-88D4-052E3F6F949C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22 Gummivare- og plastindustri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$21:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'09315 sysselsatt i industrien'!$C$29:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E911-4F7F-88D4-052E3F6F949C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1509636832"/>
+        <c:axId val="1509635848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1509636832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509635848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1509635848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509636832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
@@ -1029,7 +3250,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
@@ -1519,7 +3740,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
@@ -2104,8 +4325,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2162,7 +4463,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2214,11 +4515,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -2231,18 +4530,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2268,6 +4565,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2280,7 +4580,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2323,23 +4623,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2444,8 +4743,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2577,20 +4876,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2624,7 +4922,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2681,7 +4979,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2733,11 +5031,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -2750,18 +5046,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2787,6 +5081,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2799,7 +5096,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2842,23 +5139,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2963,8 +5259,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3096,20 +5392,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3661,7 +5956,1122 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECF8499-5BBD-4307-A3ED-54B983805E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA8B3B0-6535-40C7-9170-8CD3B5F3108A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12273,13 +15683,13 @@
   </colItems>
   <pageFields count="2">
     <pageField fld="0" item="0" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
+    <pageField fld="3" item="11" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Summer av Verdi" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -12336,14 +15746,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F02FB5A-C30C-48F1-B517-BFB46E5FE97F}" name="Tabell1" displayName="Tabell1" ref="A3:E1191" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F02FB5A-C30C-48F1-B517-BFB46E5FE97F}" name="Tabell1" displayName="Tabell1" ref="A3:E1191" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A3:E1191" xr:uid="{8F02FB5A-C30C-48F1-B517-BFB46E5FE97F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{05B2ED59-94D2-4C72-8800-A8A2F5170AA3}" name="Kolonne1"/>
     <tableColumn id="2" xr3:uid="{A502F2F8-8E35-4E1F-9589-4E0DBC5153A6}" name="Kolonne2"/>
     <tableColumn id="3" xr3:uid="{D1F5B50A-F297-4FC8-8346-590DEB68CC8A}" name="Kolonne3"/>
-    <tableColumn id="4" xr3:uid="{110FD393-6719-425E-B22B-81F68F9C6F19}" name="Kolonne4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{91124B94-DCDB-4758-90FB-4184B8331267}" name="Kolonne5" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{110FD393-6719-425E-B22B-81F68F9C6F19}" name="Kolonne4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{91124B94-DCDB-4758-90FB-4184B8331267}" name="Kolonne5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12636,8 +16046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDB4394-D0EF-447C-AB05-7E4BBB9FBA02}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12655,7 +16065,7 @@
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12663,8 +16073,8 @@
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>105</v>
+      <c r="B2" s="6">
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12679,16 +16089,16 @@
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12696,204 +16106,204 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
-        <v>157471</v>
-      </c>
-      <c r="C6" s="8">
-        <v>6607</v>
-      </c>
-      <c r="D6" s="8">
-        <v>10644</v>
-      </c>
-      <c r="E6" s="8">
-        <v>174722</v>
+      <c r="B6" s="12">
+        <v>15199</v>
+      </c>
+      <c r="C6" s="12">
+        <v>639</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1063</v>
+      </c>
+      <c r="E6" s="12">
+        <v>16901</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
-        <v>466976</v>
-      </c>
-      <c r="C7" s="8">
-        <v>23598</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3624</v>
-      </c>
-      <c r="E7" s="8">
-        <v>494198</v>
+      <c r="B7" s="12">
+        <v>50128</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2261</v>
+      </c>
+      <c r="D7" s="12">
+        <v>343</v>
+      </c>
+      <c r="E7" s="12">
+        <v>52732</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8">
-        <v>283620</v>
-      </c>
-      <c r="C8" s="8">
-        <v>37183</v>
-      </c>
-      <c r="D8" s="8">
-        <v>44339</v>
-      </c>
-      <c r="E8" s="8">
-        <v>365142</v>
+      <c r="B8" s="12">
+        <v>26486</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2279</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4242</v>
+      </c>
+      <c r="E8" s="12">
+        <v>33007</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
-        <v>133059</v>
-      </c>
-      <c r="C9" s="8">
-        <v>6949</v>
-      </c>
-      <c r="D9" s="8">
-        <v>8474</v>
-      </c>
-      <c r="E9" s="8">
-        <v>148482</v>
+      <c r="B9" s="12">
+        <v>10501</v>
+      </c>
+      <c r="C9" s="12">
+        <v>453</v>
+      </c>
+      <c r="D9" s="12">
+        <v>357</v>
+      </c>
+      <c r="E9" s="12">
+        <v>11311</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8">
-        <v>684684</v>
-      </c>
-      <c r="C10" s="8">
-        <v>50008</v>
-      </c>
-      <c r="D10" s="8">
-        <v>18961</v>
-      </c>
-      <c r="E10" s="8">
-        <v>753653</v>
+      <c r="B10" s="12">
+        <v>56618</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4566</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2244</v>
+      </c>
+      <c r="E10" s="12">
+        <v>63428</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8">
-        <v>71697</v>
-      </c>
-      <c r="C11" s="8">
-        <v>3906</v>
-      </c>
-      <c r="D11" s="8">
-        <v>916</v>
-      </c>
-      <c r="E11" s="8">
-        <v>76519</v>
+      <c r="B11" s="12">
+        <v>6653</v>
+      </c>
+      <c r="C11" s="12">
+        <v>311</v>
+      </c>
+      <c r="D11" s="12">
+        <v>92</v>
+      </c>
+      <c r="E11" s="12">
+        <v>7056</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8">
-        <v>187777</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3115</v>
-      </c>
-      <c r="D12" s="8">
-        <v>10116</v>
-      </c>
-      <c r="E12" s="8">
-        <v>201008</v>
+      <c r="B12" s="12">
+        <v>18608</v>
+      </c>
+      <c r="C12" s="12">
+        <v>389</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1102</v>
+      </c>
+      <c r="E12" s="12">
+        <v>20099</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8">
-        <v>33610</v>
-      </c>
-      <c r="C13" s="8">
-        <v>620</v>
-      </c>
-      <c r="D13" s="8">
-        <v>688</v>
-      </c>
-      <c r="E13" s="8">
-        <v>34918</v>
+      <c r="B13" s="12">
+        <v>3122</v>
+      </c>
+      <c r="C13" s="12">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8">
-        <v>127958</v>
-      </c>
-      <c r="C14" s="8">
-        <v>6676</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2439</v>
-      </c>
-      <c r="E14" s="8">
-        <v>137073</v>
+      <c r="B14" s="12">
+        <v>12459</v>
+      </c>
+      <c r="C14" s="12">
+        <v>637</v>
+      </c>
+      <c r="D14" s="12">
+        <v>180</v>
+      </c>
+      <c r="E14" s="12">
+        <v>13276</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8">
-        <v>48295</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2449</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1164</v>
-      </c>
-      <c r="E15" s="8">
-        <v>51908</v>
+      <c r="B15" s="12">
+        <v>3231</v>
+      </c>
+      <c r="C15" s="12">
+        <v>152</v>
+      </c>
+      <c r="D15" s="12">
+        <v>104</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3487</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8">
-        <v>234566</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5977</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3530</v>
-      </c>
-      <c r="E16" s="8">
-        <v>244073</v>
+      <c r="B16" s="12">
+        <v>17256</v>
+      </c>
+      <c r="C16" s="12">
+        <v>490</v>
+      </c>
+      <c r="D16" s="12">
+        <v>131</v>
+      </c>
+      <c r="E16" s="12">
+        <v>17877</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="8">
-        <v>2429713</v>
-      </c>
-      <c r="C17" s="8">
-        <v>147088</v>
-      </c>
-      <c r="D17" s="8">
-        <v>104895</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2681696</v>
+      <c r="B17" s="12">
+        <v>220261</v>
+      </c>
+      <c r="C17" s="12">
+        <v>12213</v>
+      </c>
+      <c r="D17" s="12">
+        <v>9910</v>
+      </c>
+      <c r="E17" s="12">
+        <v>242384</v>
       </c>
     </row>
   </sheetData>
@@ -43012,67 +46422,67 @@
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1192" s="12" t="s">
+      <c r="A1192" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1192" s="13"/>
-      <c r="C1192" s="13"/>
-      <c r="D1192" s="13"/>
-      <c r="E1192" s="13"/>
+      <c r="B1192" s="15"/>
+      <c r="C1192" s="15"/>
+      <c r="D1192" s="15"/>
+      <c r="E1192" s="15"/>
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1193" s="12" t="s">
+      <c r="A1193" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B1193" s="13"/>
-      <c r="C1193" s="13"/>
-      <c r="D1193" s="13"/>
-      <c r="E1193" s="13"/>
+      <c r="B1193" s="15"/>
+      <c r="C1193" s="15"/>
+      <c r="D1193" s="15"/>
+      <c r="E1193" s="15"/>
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1194" s="12" t="s">
+      <c r="A1194" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1194" s="13"/>
-      <c r="C1194" s="13"/>
-      <c r="D1194" s="13"/>
-      <c r="E1194" s="13"/>
+      <c r="B1194" s="15"/>
+      <c r="C1194" s="15"/>
+      <c r="D1194" s="15"/>
+      <c r="E1194" s="15"/>
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1195" s="12" t="s">
+      <c r="A1195" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1195" s="13"/>
-      <c r="C1195" s="13"/>
-      <c r="D1195" s="13"/>
-      <c r="E1195" s="13"/>
+      <c r="B1195" s="15"/>
+      <c r="C1195" s="15"/>
+      <c r="D1195" s="15"/>
+      <c r="E1195" s="15"/>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1196" s="12" t="s">
+      <c r="A1196" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1196" s="13"/>
-      <c r="C1196" s="13"/>
-      <c r="D1196" s="13"/>
-      <c r="E1196" s="13"/>
+      <c r="B1196" s="15"/>
+      <c r="C1196" s="15"/>
+      <c r="D1196" s="15"/>
+      <c r="E1196" s="15"/>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1197" s="12" t="s">
+      <c r="A1197" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1197" s="13"/>
-      <c r="C1197" s="13"/>
-      <c r="D1197" s="13"/>
-      <c r="E1197" s="13"/>
+      <c r="B1197" s="15"/>
+      <c r="C1197" s="15"/>
+      <c r="D1197" s="15"/>
+      <c r="E1197" s="15"/>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1198" s="12" t="s">
+      <c r="A1198" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1198" s="13"/>
-      <c r="C1198" s="13"/>
-      <c r="D1198" s="13"/>
-      <c r="E1198" s="13"/>
+      <c r="B1198" s="15"/>
+      <c r="C1198" s="15"/>
+      <c r="D1198" s="15"/>
+      <c r="E1198" s="15"/>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
@@ -43080,13 +46490,13 @@
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1200" s="13" t="s">
+      <c r="A1200" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B1200" s="13"/>
-      <c r="C1200" s="13"/>
-      <c r="D1200" s="13"/>
-      <c r="E1200" s="13"/>
+      <c r="B1200" s="15"/>
+      <c r="C1200" s="15"/>
+      <c r="D1200" s="15"/>
+      <c r="E1200" s="15"/>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
@@ -43343,10 +46753,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AAA909-E378-4E24-AB03-5EBE65B722DC}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44943,6 +48353,103 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A21:N36" xr:uid="{08AAA909-E378-4E24-AB03-5EBE65B722DC}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:N36">
@@ -44950,10 +48457,644 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C095BC-7448-4EF1-9EFB-EAB62BB3EB01}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:U56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2437</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2631</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2521</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2554</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2612</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2663</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2540</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2499</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2499</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2463</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2426</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1755</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1676</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1664</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1667</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1688</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1689</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1559</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1413</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1354</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1427</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1444</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1326</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1268</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1278</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1318</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1336</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1297</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1001</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1005</v>
+      </c>
+      <c r="J4" s="11">
+        <v>999</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1009</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1008</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="11">
+        <v>749</v>
+      </c>
+      <c r="C5" s="11">
+        <v>772</v>
+      </c>
+      <c r="D5" s="11">
+        <v>769</v>
+      </c>
+      <c r="E5" s="11">
+        <v>735</v>
+      </c>
+      <c r="F5" s="11">
+        <v>729</v>
+      </c>
+      <c r="G5" s="11">
+        <v>689</v>
+      </c>
+      <c r="H5" s="11">
+        <v>697</v>
+      </c>
+      <c r="I5" s="11">
+        <v>715</v>
+      </c>
+      <c r="J5" s="11">
+        <v>770</v>
+      </c>
+      <c r="K5" s="11">
+        <v>736</v>
+      </c>
+      <c r="L5" s="11">
+        <v>717</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="11">
+        <v>504</v>
+      </c>
+      <c r="C6" s="11">
+        <v>499</v>
+      </c>
+      <c r="D6" s="11">
+        <v>495</v>
+      </c>
+      <c r="E6" s="11">
+        <v>493</v>
+      </c>
+      <c r="F6" s="11">
+        <v>507</v>
+      </c>
+      <c r="G6" s="11">
+        <v>512</v>
+      </c>
+      <c r="H6" s="11">
+        <v>501</v>
+      </c>
+      <c r="I6" s="11">
+        <v>508</v>
+      </c>
+      <c r="J6" s="11">
+        <v>519</v>
+      </c>
+      <c r="K6" s="11">
+        <v>519</v>
+      </c>
+      <c r="L6" s="11">
+        <v>506</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="11">
+        <v>391</v>
+      </c>
+      <c r="C7" s="11">
+        <v>356</v>
+      </c>
+      <c r="D7" s="11">
+        <v>352</v>
+      </c>
+      <c r="E7" s="11">
+        <v>333</v>
+      </c>
+      <c r="F7" s="11">
+        <v>326</v>
+      </c>
+      <c r="G7" s="11">
+        <v>340</v>
+      </c>
+      <c r="H7" s="11">
+        <v>346</v>
+      </c>
+      <c r="I7" s="11">
+        <v>322</v>
+      </c>
+      <c r="J7" s="11">
+        <v>361</v>
+      </c>
+      <c r="K7" s="11">
+        <v>364</v>
+      </c>
+      <c r="L7" s="11">
+        <v>403</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="11">
+        <v>284</v>
+      </c>
+      <c r="C8" s="11">
+        <v>280</v>
+      </c>
+      <c r="D8" s="11">
+        <v>277</v>
+      </c>
+      <c r="E8" s="11">
+        <v>266</v>
+      </c>
+      <c r="F8" s="11">
+        <v>259</v>
+      </c>
+      <c r="G8" s="11">
+        <v>263</v>
+      </c>
+      <c r="H8" s="11">
+        <v>269</v>
+      </c>
+      <c r="I8" s="11">
+        <v>268</v>
+      </c>
+      <c r="J8" s="11">
+        <v>277</v>
+      </c>
+      <c r="K8" s="11">
+        <v>271</v>
+      </c>
+      <c r="L8" s="11">
+        <v>293</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AED573-6059-476B-9CF4-CB09AC86DC02}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1903</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1993</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1961</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1483</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1480</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1557</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1589</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1620</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1553</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1670</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="11">
+        <v>987</v>
+      </c>
+      <c r="C3" s="11">
+        <v>844</v>
+      </c>
+      <c r="D3" s="11">
+        <v>942</v>
+      </c>
+      <c r="E3" s="11">
+        <v>972</v>
+      </c>
+      <c r="F3" s="11">
+        <v>985</v>
+      </c>
+      <c r="G3" s="11">
+        <v>862</v>
+      </c>
+      <c r="H3" s="11">
+        <v>746</v>
+      </c>
+      <c r="I3" s="11">
+        <v>788</v>
+      </c>
+      <c r="J3" s="11">
+        <v>721</v>
+      </c>
+      <c r="K3" s="11">
+        <v>775</v>
+      </c>
+      <c r="L3" s="11">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="11">
+        <v>633</v>
+      </c>
+      <c r="C4" s="11">
+        <v>552</v>
+      </c>
+      <c r="D4" s="11">
+        <v>571</v>
+      </c>
+      <c r="E4" s="11">
+        <v>581</v>
+      </c>
+      <c r="F4" s="11">
+        <v>593</v>
+      </c>
+      <c r="G4" s="11">
+        <v>564</v>
+      </c>
+      <c r="H4" s="11">
+        <v>549</v>
+      </c>
+      <c r="I4" s="11">
+        <v>573</v>
+      </c>
+      <c r="J4" s="11">
+        <v>615</v>
+      </c>
+      <c r="K4" s="11">
+        <v>609</v>
+      </c>
+      <c r="L4" s="11">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="11">
+        <v>498</v>
+      </c>
+      <c r="C5" s="11">
+        <v>515</v>
+      </c>
+      <c r="D5" s="11">
+        <v>530</v>
+      </c>
+      <c r="E5" s="11">
+        <v>540</v>
+      </c>
+      <c r="F5" s="11">
+        <v>563</v>
+      </c>
+      <c r="G5" s="11">
+        <v>580</v>
+      </c>
+      <c r="H5" s="11">
+        <v>477</v>
+      </c>
+      <c r="I5" s="11">
+        <v>462</v>
+      </c>
+      <c r="J5" s="11">
+        <v>532</v>
+      </c>
+      <c r="K5" s="11">
+        <v>551</v>
+      </c>
+      <c r="L5" s="11">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="11">
+        <v>631</v>
+      </c>
+      <c r="C6" s="11">
+        <v>589</v>
+      </c>
+      <c r="D6" s="11">
+        <v>485</v>
+      </c>
+      <c r="E6" s="11">
+        <v>440</v>
+      </c>
+      <c r="F6" s="11">
+        <v>418</v>
+      </c>
+      <c r="G6" s="11">
+        <v>408</v>
+      </c>
+      <c r="H6" s="11">
+        <v>404</v>
+      </c>
+      <c r="I6" s="11">
+        <v>423</v>
+      </c>
+      <c r="J6" s="11">
+        <v>414</v>
+      </c>
+      <c r="K6" s="11">
+        <v>411</v>
+      </c>
+      <c r="L6" s="11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="11">
+        <v>411</v>
+      </c>
+      <c r="C7" s="11">
+        <v>383</v>
+      </c>
+      <c r="D7" s="11">
+        <v>361</v>
+      </c>
+      <c r="E7" s="11">
+        <v>374</v>
+      </c>
+      <c r="F7" s="11">
+        <v>348</v>
+      </c>
+      <c r="G7" s="11">
+        <v>363</v>
+      </c>
+      <c r="H7" s="11">
+        <v>287</v>
+      </c>
+      <c r="I7" s="11">
+        <v>316</v>
+      </c>
+      <c r="J7" s="11">
+        <v>321</v>
+      </c>
+      <c r="K7" s="11">
+        <v>291</v>
+      </c>
+      <c r="L7" s="11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08039489-F1AE-4A92-9A40-58E152E40EB5}">
   <dimension ref="A1:P42"/>
   <sheetViews>
